--- a/forms/Form-4SF_interim.xlsx
+++ b/forms/Form-4SF_interim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E8F7D-8A82-48E7-9F55-8F3103207A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC83191-A0FB-4994-BD26-ABFF4D66772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -48,12 +48,6 @@
     <t>Full name</t>
   </si>
   <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>General information</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Submission information</t>
   </si>
   <si>
-    <t>Finalization date</t>
-  </si>
-  <si>
     <t>Submission date</t>
   </si>
   <si>
@@ -175,6 +166,15 @@
   </si>
   <si>
     <t>1.0.0-interim</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>Organisation</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1261,17 +1261,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1287,7 +1287,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1312,7 +1312,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="10"/>
       <c r="F8" s="58" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="11"/>
@@ -1333,12 +1333,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>3</v>
+      <c r="F10" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1355,7 +1355,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="10"/>
@@ -1366,7 +1366,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="10"/>
@@ -1395,7 +1395,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1415,12 +1415,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="10"/>
       <c r="F18" s="47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="11"/>
@@ -1428,12 +1428,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="10"/>
       <c r="F19" s="47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="11"/>
@@ -1441,12 +1441,12 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="10"/>
       <c r="F20" s="47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="11"/>
@@ -1472,7 +1472,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="10"/>
@@ -1486,7 +1486,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="11"/>
@@ -1494,12 +1494,12 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="10"/>
       <c r="F25" s="47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="11"/>
@@ -1510,7 +1510,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" s="34"/>
       <c r="H26" s="11"/>
@@ -1518,12 +1518,12 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="10"/>
       <c r="F27" s="47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G27" s="34"/>
       <c r="H27" s="11"/>
@@ -1531,12 +1531,12 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="10"/>
       <c r="F28" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="11"/>
@@ -1544,7 +1544,7 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="47" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="10"/>
@@ -1555,12 +1555,12 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="10"/>
       <c r="F30" s="47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G30" s="34"/>
       <c r="H30" s="11"/>
@@ -1568,14 +1568,14 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G31" s="34"/>
       <c r="H31" s="11"/>
@@ -1601,7 +1601,7 @@
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="10"/>
@@ -1641,7 +1641,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CYBCSTFPb7DPvEx0FdOqqtS4q7rxhrpny0KrqChBL8ZZuf9u3xS3v27kc4U8tKcTs9uvuDJNaukVtoe3rNxzCg==" saltValue="yyHJ+8PVbyaQ+VWmpl2AIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9Fn/GxcBxnuAxAcFe6zfnVCt1yFXPKXXJtyMBR1CoaMBF25BrAaHWI/2MZ8UCBKIzbHGTQxOv+I95H+dVe+gsw==" saltValue="Md6v46ij0/jwWqjE7ldCfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
@@ -1729,38 +1729,38 @@
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="70"/>
       <c r="F4" s="68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">

--- a/forms/Form-4SF_interim.xlsx
+++ b/forms/Form-4SF_interim.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC83191-A0FB-4994-BD26-ABFF4D66772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F7C66-AB81-4727-B57D-A2231532C112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -898,6 +898,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1224,7 +1225,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="71" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="22"/>
@@ -1641,7 +1642,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9Fn/GxcBxnuAxAcFe6zfnVCt1yFXPKXXJtyMBR1CoaMBF25BrAaHWI/2MZ8UCBKIzbHGTQxOv+I95H+dVe+gsw==" saltValue="Md6v46ij0/jwWqjE7ldCfA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kSsfMy8zNfWiFu6NbDEuVApkl6kOJL1ipIUYJHwIOU8ld/m5W7g0dS2ZGy+g13TzdjM2lGA3M4YvhsNO/Dv5mg==" saltValue="FK421PaVB2hI3FdNI6Yxfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>

--- a/forms/Form-4SF_interim.xlsx
+++ b/forms/Form-4SF_interim.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-workflow\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F7C66-AB81-4727-B57D-A2231532C112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313D0D29-1EAF-412B-A4B4-D32C609ECFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="jbPe6SBLf4oG4Cgxdp2GTHPCnTakxOLusQvs3FLR97ZGw7ZrHwFP80gs+fK1zVtwmXmlsYM45w/LTktaEDAlHA==" workbookSaltValue="+e6btQraNKSRCi9yKssXHA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -898,7 +898,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1225,7 +1224,7 @@
   <dimension ref="B1:H38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1337,7 @@
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="22"/>
